--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="49">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="9132" windowHeight="2988" activeTab="1"/>
+    <workbookView activeTab="4" windowHeight="2985" windowWidth="9135" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2370"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
-    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
+    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
@@ -217,12 +221,16 @@
   </si>
   <si>
     <t>unchecks the first and 2nd NICategory change</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,53 +300,56 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,10 +360,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -387,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +431,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,6 +483,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,7 +555,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -519,13 +564,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -535,7 +580,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -544,7 +589,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -553,7 +598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -563,12 +608,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -599,7 +644,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -618,7 +663,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -630,22 +675,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -673,7 +718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -684,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -698,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -712,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -727,30 +772,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -791,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
@@ -831,29 +876,29 @@
       <c r="O2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -894,7 +939,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -912,7 +957,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -930,7 +975,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -948,7 +993,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -966,7 +1011,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -984,7 +1029,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1003,32 +1048,32 @@
       <c r="I8" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="30" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="30.6" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
@@ -1104,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="3" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
@@ -1139,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
@@ -1174,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -1209,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="28.9" r="6" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>47</v>
       </c>
@@ -1244,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="30" r="7" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -1279,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -1316,36 +1361,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="30" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1389,7 +1434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -1412,7 +1457,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>43</v>
@@ -1429,8 +1474,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" windowHeight="2985" windowWidth="9135" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2370"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
-    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
+    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
   <si>
     <t>TC</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>3</t>
@@ -229,8 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,50 +296,50 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,10 +356,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -398,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,7 +551,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -564,13 +560,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -580,7 +576,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -589,7 +585,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -598,7 +594,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -608,12 +604,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -644,7 +640,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -663,7 +659,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -675,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -684,10 +680,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -718,12 +714,12 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -772,13 +768,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -787,12 +783,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -800,31 +796,31 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -836,36 +832,36 @@
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>5</v>
@@ -876,12 +872,12 @@
       <c r="O2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -890,12 +886,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1048,32 +1044,32 @@
       <c r="I8" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1114,15 +1110,15 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="30.6" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
@@ -1131,13 +1127,13 @@
         <v>38</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>39</v>
@@ -1149,15 +1145,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="26.45" r="3" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>15</v>
@@ -1166,13 +1162,13 @@
         <v>38</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>39</v>
@@ -1184,15 +1180,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>15</v>
@@ -1201,13 +1197,13 @@
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>39</v>
@@ -1219,15 +1215,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>15</v>
@@ -1236,13 +1232,13 @@
         <v>38</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>39</v>
@@ -1254,15 +1250,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.9" r="6" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>15</v>
@@ -1271,13 +1267,13 @@
         <v>38</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>39</v>
@@ -1289,15 +1285,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="30" r="7" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>15</v>
@@ -1306,13 +1302,13 @@
         <v>38</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>39</v>
@@ -1324,15 +1320,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="8" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>15</v>
@@ -1341,13 +1337,13 @@
         <v>38</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>39</v>
@@ -1361,36 +1357,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>37</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1434,15 +1430,15 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
@@ -1451,22 +1447,22 @@
         <v>38</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>5</v>
@@ -1474,8 +1470,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="2985" windowWidth="9135" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
-    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
+    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
   <si>
     <t>TC</t>
   </si>
@@ -227,6 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,50 +297,50 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,10 +357,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -394,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +552,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -560,13 +561,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -576,7 +577,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -585,7 +586,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -594,7 +595,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -604,12 +605,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -640,7 +641,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -659,7 +660,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -671,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,10 +681,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -714,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -768,13 +769,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -783,12 +784,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -832,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
@@ -872,12 +873,12 @@
       <c r="O2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -886,12 +887,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1044,13 +1045,13 @@
       <c r="I8" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
@@ -1059,17 +1060,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="47.25" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="3" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="28.9" r="6" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="30" r="7" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1357,16 +1358,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A8" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1375,18 +1376,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
@@ -1470,8 +1471,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="2985" windowWidth="9135" xWindow="0" yWindow="2370"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
-    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
+    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>
@@ -73,27 +73,6 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -163,12 +142,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Weekly_Payroll</t>
-  </si>
-  <si>
     <t>FromDate</t>
   </si>
   <si>
@@ -193,9 +166,6 @@
     <t>SecondNICatgoryChange</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 103</t>
-  </si>
-  <si>
     <t>04/01/2017</t>
   </si>
   <si>
@@ -221,13 +191,39 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 390</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 391</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 392</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 393</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 394</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 395</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 396</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NIWCA EMPLOYER</t>
+  </si>
+  <si>
+    <t>NIWCA_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,50 +293,47 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -357,10 +350,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -395,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +545,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -561,13 +554,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -577,7 +570,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -586,7 +579,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -595,7 +588,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -605,12 +598,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -641,7 +634,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -660,7 +653,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -672,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -681,10 +674,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,12 +694,12 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -715,12 +708,12 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -742,10 +735,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -756,10 +749,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -769,27 +762,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -797,31 +790,31 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -833,36 +826,36 @@
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>5</v>
@@ -873,26 +866,26 @@
       <c r="O2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -919,8 +912,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -937,8 +930,8 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
+      <c r="A3" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -955,8 +948,8 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
+      <c r="A4" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -973,8 +966,8 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
+      <c r="A5" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -991,8 +984,8 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
+      <c r="A6" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1009,8 +1002,8 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
+      <c r="A7" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1027,8 +1020,8 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
+      <c r="A8" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1045,61 +1038,61 @@
       <c r="I8" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>2</v>
@@ -1111,246 +1104,246 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="47.25" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>46</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="26.45" r="3" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>46</v>
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>46</v>
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>46</v>
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.9" r="6" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>46</v>
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="30" r="7" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>46</v>
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="8" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>46</v>
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>5</v>
@@ -1358,68 +1351,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A8"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1431,39 +1423,39 @@
         <v>12</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>5</v>
@@ -1471,8 +1463,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2370" windowWidth="9135" windowHeight="2985" activeTab="4"/>
+    <workbookView activeTab="2" windowHeight="2988" windowWidth="9132" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="6" r:id="rId2"/>
-    <sheet name="NIWeeklyCat_A" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="6"/>
+    <sheet name="NIWeeklyCat_A" r:id="rId3" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId4" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>
@@ -223,7 +218,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,47 +289,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -350,10 +347,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -388,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,26 +418,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,23 +453,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,7 +508,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -554,13 +517,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -570,7 +533,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -579,7 +542,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -588,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -598,12 +561,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -634,7 +597,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -653,7 +616,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -665,22 +628,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -708,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -719,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -733,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -747,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -762,30 +725,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>56</v>
       </c>
@@ -866,26 +829,26 @@
       <c r="O2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -912,7 +875,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
@@ -930,7 +893,7 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
@@ -948,7 +911,7 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
@@ -966,7 +929,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
@@ -984,7 +947,7 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
@@ -1002,7 +965,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B7" t="s">
@@ -1020,7 +983,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B8" t="s">
@@ -1038,32 +1001,32 @@
       <c r="I8" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="47.25" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
@@ -1139,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="3" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
@@ -1174,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.95" r="4" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>63</v>
       </c>
@@ -1209,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.95" r="5" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>63</v>
       </c>
@@ -1244,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="28.95" r="6" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -1279,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="30" r="7" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
@@ -1314,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
@@ -1351,35 +1314,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
@@ -1463,8 +1426,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatA201718.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>
